--- a/Tikka/db.xlsx
+++ b/Tikka/db.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\xampp\htdocs\tika_kredit\Tikka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F86D123B-7428-496A-A294-E15E7D72CDBB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7E7C8A5B-5B7A-42D4-A80E-F652DDD914D8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{77557E28-D8F1-4857-8038-958EB5444A9D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" activeTab="1" xr2:uid="{77557E28-D8F1-4857-8038-958EB5444A9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="98">
   <si>
     <t>nasabah</t>
   </si>
@@ -289,6 +290,36 @@
   </si>
   <si>
     <t>enum(terima,tolak,proses)</t>
+  </si>
+  <si>
+    <t>ID Pembiayaan</t>
+  </si>
+  <si>
+    <t>LAPORAN PEMBIAYAAN DITERIMA</t>
+  </si>
+  <si>
+    <t>Nama Perusahaan</t>
+  </si>
+  <si>
+    <t>Periode</t>
+  </si>
+  <si>
+    <t>Tanggal</t>
+  </si>
+  <si>
+    <t>Nama Nasabah</t>
+  </si>
+  <si>
+    <t>Jumlah Pinjaman</t>
+  </si>
+  <si>
+    <t>Waktu Pinjam</t>
+  </si>
+  <si>
+    <t>Angsuran</t>
+  </si>
+  <si>
+    <t>Jenis Pinjaman</t>
   </si>
 </sst>
 </file>
@@ -312,7 +343,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -320,12 +351,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -642,7 +689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC1C023C-85E0-4E99-84B9-8C9FE7F0C08D}">
   <dimension ref="C3:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="I21" sqref="I21:J29"/>
     </sheetView>
   </sheetViews>
@@ -1445,4 +1492,87 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9158005-2560-4F94-9F22-8098BFAAACB8}">
+  <dimension ref="D2:K8"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>